--- a/team_specific_matrix/Miami (FL)_A.xlsx
+++ b/team_specific_matrix/Miami (FL)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1441441441441441</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1933333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1947368421052632</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.3578947368421053</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.06870229007633588</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.07633587786259542</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1908396946564886</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.3969465648854962</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.07788944723618091</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.05276381909547739</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.135678391959799</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01256281407035176</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1934673366834171</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1080402010050251</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.4045226130653266</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1152073732718894</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.05069124423963134</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1474654377880184</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1336405529953917</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.119815668202765</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.4147465437788018</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.08682170542635659</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1372093023255814</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01472868217054264</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2232558139534884</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3434108527131783</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3277777777777778</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4836601307189543</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06535947712418301</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.0718954248366013</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.01545253863134658</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2097130242825607</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.08167770419426049</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4701986754966888</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.04856512141280353</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.108167770419426</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1306122448979592</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.04489795918367347</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01232394366197183</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1892605633802817</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1161971830985915</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4049295774647887</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.07922535211267606</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01496478873239437</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05721830985915493</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1258802816901408</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Miami (FL)_A.xlsx
+++ b/team_specific_matrix/Miami (FL)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1441441441441441</v>
+        <v>0.1476793248945148</v>
       </c>
       <c r="C2">
-        <v>0.6621621621621622</v>
+        <v>0.6540084388185654</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01351351351351351</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0990990990990991</v>
+        <v>0.09282700421940929</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08108108108108109</v>
+        <v>0.09282700421940929</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01333333333333333</v>
+        <v>0.01875</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02666666666666667</v>
+        <v>0.0375</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1933333333333333</v>
+        <v>0.19375</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7058823529411765</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2941176470588235</v>
+        <v>0.2972972972972973</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04736842105263158</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005263157894736842</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03684210526315789</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2421052631578947</v>
+        <v>0.2311320754716981</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01052631578947368</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1947368421052632</v>
+        <v>0.1981132075471698</v>
       </c>
       <c r="R6">
-        <v>0.1052631578947368</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="S6">
-        <v>0.3578947368421053</v>
+        <v>0.3632075471698113</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06870229007633588</v>
+        <v>0.07194244604316546</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007633587786259542</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07633587786259542</v>
+        <v>0.07194244604316546</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09923664122137404</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03053435114503817</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1908396946564886</v>
+        <v>0.1798561151079137</v>
       </c>
       <c r="R7">
-        <v>0.1297709923664122</v>
+        <v>0.1223021582733813</v>
       </c>
       <c r="S7">
-        <v>0.3969465648854962</v>
+        <v>0.4028776978417266</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07788944723618091</v>
+        <v>0.07838479809976247</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01507537688442211</v>
+        <v>0.01425178147268409</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05276381909547739</v>
+        <v>0.05225653206650831</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.135678391959799</v>
+        <v>0.1377672209026128</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01256281407035176</v>
+        <v>0.01187648456057007</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1934673366834171</v>
+        <v>0.1900237529691211</v>
       </c>
       <c r="R8">
-        <v>0.1080402010050251</v>
+        <v>0.1140142517814727</v>
       </c>
       <c r="S8">
-        <v>0.4045226130653266</v>
+        <v>0.4014251781472684</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1152073732718894</v>
+        <v>0.1056910569105691</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009216589861751152</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05069124423963134</v>
+        <v>0.05691056910569105</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1474654377880184</v>
+        <v>0.1382113821138211</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009216589861751152</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1336405529953917</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="R9">
-        <v>0.119815668202765</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="S9">
-        <v>0.4147465437788018</v>
+        <v>0.4105691056910569</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08682170542635659</v>
+        <v>0.08664259927797834</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01937984496124031</v>
+        <v>0.01949458483754513</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06666666666666667</v>
+        <v>0.07075812274368232</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1372093023255814</v>
+        <v>0.1335740072202166</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01472868217054264</v>
+        <v>0.01444043321299639</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2232558139534884</v>
+        <v>0.2194945848375451</v>
       </c>
       <c r="R10">
-        <v>0.1085271317829457</v>
+        <v>0.1090252707581227</v>
       </c>
       <c r="S10">
-        <v>0.3434108527131783</v>
+        <v>0.3465703971119133</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.165</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.065</v>
+        <v>0.06190476190476191</v>
       </c>
       <c r="K11">
-        <v>0.21</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="L11">
-        <v>0.55</v>
+        <v>0.5523809523809524</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01</v>
+        <v>0.009523809523809525</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.646551724137931</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2413793103448276</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="K12">
-        <v>0.01724137931034483</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="L12">
-        <v>0.0603448275862069</v>
+        <v>0.05737704918032787</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03448275862068965</v>
+        <v>0.03278688524590164</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7428571428571429</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05714285714285714</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02222222222222222</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1666666666666667</v>
+        <v>0.1732673267326733</v>
       </c>
       <c r="I15">
-        <v>0.07222222222222222</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="J15">
-        <v>0.3277777777777778</v>
+        <v>0.3316831683168317</v>
       </c>
       <c r="K15">
-        <v>0.06111111111111111</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02222222222222222</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="N15">
-        <v>0.005555555555555556</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="O15">
-        <v>0.08888888888888889</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2333333333333333</v>
+        <v>0.2227722772277228</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0130718954248366</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1568627450980392</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="I16">
-        <v>0.09803921568627451</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="J16">
-        <v>0.4836601307189543</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="K16">
-        <v>0.08496732026143791</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N16">
-        <v>0.006535947712418301</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="O16">
-        <v>0.06535947712418301</v>
+        <v>0.06289308176100629</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0718954248366013</v>
+        <v>0.06918238993710692</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01545253863134658</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2097130242825607</v>
+        <v>0.1983471074380165</v>
       </c>
       <c r="I17">
-        <v>0.08167770419426049</v>
+        <v>0.08677685950413223</v>
       </c>
       <c r="J17">
-        <v>0.4701986754966888</v>
+        <v>0.4690082644628099</v>
       </c>
       <c r="K17">
-        <v>0.05298013245033113</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01324503311258278</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04856512141280353</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.108167770419426</v>
+        <v>0.109504132231405</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0163265306122449</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1306122448979592</v>
+        <v>0.1390977443609022</v>
       </c>
       <c r="I18">
-        <v>0.08571428571428572</v>
+        <v>0.09398496240601503</v>
       </c>
       <c r="J18">
-        <v>0.5306122448979592</v>
+        <v>0.5150375939849624</v>
       </c>
       <c r="K18">
-        <v>0.04489795918367347</v>
+        <v>0.04511278195488722</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02040816326530612</v>
+        <v>0.02255639097744361</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05714285714285714</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1142857142857143</v>
+        <v>0.1165413533834586</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01232394366197183</v>
+        <v>0.01221498371335505</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1892605633802817</v>
+        <v>0.1848534201954397</v>
       </c>
       <c r="I19">
-        <v>0.1161971830985915</v>
+        <v>0.1205211726384365</v>
       </c>
       <c r="J19">
-        <v>0.4049295774647887</v>
+        <v>0.4079804560260586</v>
       </c>
       <c r="K19">
-        <v>0.07922535211267606</v>
+        <v>0.07736156351791532</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01496478873239437</v>
+        <v>0.01465798045602606</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05721830985915493</v>
+        <v>0.06107491856677524</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1258802816901408</v>
+        <v>0.1213355048859935</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Miami (FL)_A.xlsx
+++ b/team_specific_matrix/Miami (FL)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1476793248945148</v>
+        <v>0.1551020408163265</v>
       </c>
       <c r="C2">
-        <v>0.6540084388185654</v>
+        <v>0.6408163265306123</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01265822784810127</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09282700421940929</v>
+        <v>0.09795918367346938</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09282700421940929</v>
+        <v>0.09387755102040816</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01875</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0375</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.7530864197530864</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.19375</v>
+        <v>0.191358024691358</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7027027027027027</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2972972972972973</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04716981132075472</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009433962264150943</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03773584905660377</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2311320754716981</v>
+        <v>0.2339449541284404</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009433962264150943</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1981132075471698</v>
+        <v>0.1972477064220184</v>
       </c>
       <c r="R6">
-        <v>0.1037735849056604</v>
+        <v>0.1055045871559633</v>
       </c>
       <c r="S6">
-        <v>0.3632075471698113</v>
+        <v>0.3623853211009174</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07194244604316546</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007194244604316547</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07194244604316546</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1151079136690648</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02877697841726619</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1798561151079137</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R7">
-        <v>0.1223021582733813</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="S7">
-        <v>0.4028776978417266</v>
+        <v>0.3986013986013986</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07838479809976247</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01425178147268409</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05225653206650831</v>
+        <v>0.05529953917050692</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1377672209026128</v>
+        <v>0.1336405529953917</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01187648456057007</v>
+        <v>0.01152073732718894</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1900237529691211</v>
+        <v>0.1866359447004608</v>
       </c>
       <c r="R8">
-        <v>0.1140142517814727</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="S8">
-        <v>0.4014251781472684</v>
+        <v>0.4055299539170507</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1056910569105691</v>
+        <v>0.1019607843137255</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008130081300813009</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05691056910569105</v>
+        <v>0.05490196078431372</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1382113821138211</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01219512195121951</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1463414634146341</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="R9">
-        <v>0.1219512195121951</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="S9">
-        <v>0.4105691056910569</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08664259927797834</v>
+        <v>0.08553546592489569</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01949458483754513</v>
+        <v>0.01947148817802503</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07075812274368232</v>
+        <v>0.06884561891515995</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1335740072202166</v>
+        <v>0.1363004172461753</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01444043321299639</v>
+        <v>0.01390820584144645</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2194945848375451</v>
+        <v>0.217663421418637</v>
       </c>
       <c r="R10">
-        <v>0.1090252707581227</v>
+        <v>0.10778859527121</v>
       </c>
       <c r="S10">
-        <v>0.3465703971119133</v>
+        <v>0.3504867872044506</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1666666666666667</v>
+        <v>0.16289592760181</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06190476190476191</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="K11">
-        <v>0.2095238095238095</v>
+        <v>0.2126696832579185</v>
       </c>
       <c r="L11">
-        <v>0.5523809523809524</v>
+        <v>0.5475113122171946</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009523809523809525</v>
+        <v>0.009049773755656109</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6557377049180327</v>
+        <v>0.6535433070866141</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2377049180327869</v>
+        <v>0.2440944881889764</v>
       </c>
       <c r="K12">
-        <v>0.01639344262295082</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="L12">
-        <v>0.05737704918032787</v>
+        <v>0.05511811023622047</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03278688524590164</v>
+        <v>0.03149606299212598</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7297297297297297</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2162162162162162</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0198019801980198</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1732673267326733</v>
+        <v>0.1747572815533981</v>
       </c>
       <c r="I15">
-        <v>0.07425742574257425</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="J15">
-        <v>0.3316831683168317</v>
+        <v>0.3300970873786408</v>
       </c>
       <c r="K15">
-        <v>0.06435643564356436</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0198019801980198</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="N15">
-        <v>0.004950495049504951</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="O15">
-        <v>0.0891089108910891</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2227722772277228</v>
+        <v>0.2233009708737864</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01257861635220126</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1509433962264151</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="I16">
-        <v>0.1069182389937107</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="J16">
-        <v>0.4905660377358491</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="K16">
-        <v>0.08176100628930817</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01886792452830189</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="N16">
-        <v>0.006289308176100629</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="O16">
-        <v>0.06289308176100629</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.06918238993710692</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01652892561983471</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1983471074380165</v>
+        <v>0.1983967935871744</v>
       </c>
       <c r="I17">
-        <v>0.08677685950413223</v>
+        <v>0.08617234468937876</v>
       </c>
       <c r="J17">
-        <v>0.4690082644628099</v>
+        <v>0.468937875751503</v>
       </c>
       <c r="K17">
-        <v>0.04958677685950413</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01239669421487603</v>
+        <v>0.01402805611222445</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05785123966942149</v>
+        <v>0.0561122244488978</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.109504132231405</v>
+        <v>0.1082164328657315</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01503759398496241</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1390977443609022</v>
+        <v>0.1397058823529412</v>
       </c>
       <c r="I18">
-        <v>0.09398496240601503</v>
+        <v>0.09191176470588236</v>
       </c>
       <c r="J18">
-        <v>0.5150375939849624</v>
+        <v>0.5110294117647058</v>
       </c>
       <c r="K18">
-        <v>0.04511278195488722</v>
+        <v>0.04779411764705882</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02255639097744361</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05263157894736842</v>
+        <v>0.05514705882352941</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1165413533834586</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01221498371335505</v>
+        <v>0.01250977326035966</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1848534201954397</v>
+        <v>0.1837372947615324</v>
       </c>
       <c r="I19">
-        <v>0.1205211726384365</v>
+        <v>0.1196247068021892</v>
       </c>
       <c r="J19">
-        <v>0.4079804560260586</v>
+        <v>0.4073494917904613</v>
       </c>
       <c r="K19">
-        <v>0.07736156351791532</v>
+        <v>0.07896794370602032</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01465798045602606</v>
+        <v>0.01407349491790461</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06107491856677524</v>
+        <v>0.06020328381548085</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1213355048859935</v>
+        <v>0.1235340109460516</v>
       </c>
     </row>
   </sheetData>
